--- a/level-3/hackerrank/phase-3-graph-string/hackerrank-phase-3-graph-greedy-string.xlsx
+++ b/level-3/hackerrank/phase-3-graph-string/hackerrank-phase-3-graph-greedy-string.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E25CD5-3084-4695-9060-C1DB6EC899D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661EBFB9-86DA-41BA-BC02-D93478787582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 3 - graph-greedy-string" sheetId="14" r:id="rId1"/>
+    <sheet name="graph-string" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -633,12 +646,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -651,10 +664,7 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -663,8 +673,14 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -692,15 +708,6 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1090,59 +1097,59 @@
   <cols>
     <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="13"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C84)</f>
         <v>#DIV/0!</v>
@@ -1183,17 +1190,17 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="7">
         <f t="shared" ref="H4:H35" si="1">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1204,17 +1211,17 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1235,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1256,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1277,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1298,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1319,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1340,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1351,17 +1358,17 @@
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1382,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1403,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1424,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1445,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1466,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1477,17 +1484,17 @@
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1508,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1529,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1540,17 +1547,17 @@
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1571,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1592,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1613,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1634,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1655,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1676,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1697,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1718,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1729,17 +1736,17 @@
       <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1750,17 +1757,17 @@
       <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="21" t="s">
+      <c r="J31" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1781,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="21" t="s">
+      <c r="J32" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1802,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="21" t="s">
+      <c r="J33" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1813,17 +1820,17 @@
       <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="21" t="s">
+      <c r="J34" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1834,17 +1841,17 @@
       <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="21" t="s">
+      <c r="J35" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1865,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="21" t="s">
+      <c r="J36" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1876,17 +1883,17 @@
       <c r="B37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="21" t="s">
+      <c r="J37" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1907,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="21" t="s">
+      <c r="J38" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1918,17 +1925,17 @@
       <c r="B39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="21" t="s">
+      <c r="J39" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1948,7 +1955,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="22" t="s">
+      <c r="J40" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1968,7 +1975,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J41" s="22" t="s">
+      <c r="J41" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1988,7 +1995,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="22" t="s">
+      <c r="J42" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2008,7 +2015,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2019,16 +2026,16 @@
       <c r="B44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J44" s="22" t="s">
+      <c r="J44" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2039,16 +2046,16 @@
       <c r="B45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J45" s="22" t="s">
+      <c r="J45" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2059,16 +2066,16 @@
       <c r="B46" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="11">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="7">
         <f t="shared" ref="H46:H67" si="3">SUM(C46:G46)</f>
         <v>0</v>
       </c>
-      <c r="J46" s="22" t="s">
+      <c r="J46" s="11" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2079,16 +2086,16 @@
       <c r="B47" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="11">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J47" s="22" t="s">
+      <c r="J47" s="11" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2099,16 +2106,16 @@
       <c r="B48" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="11">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J48" s="22" t="s">
+      <c r="J48" s="11" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2119,16 +2126,16 @@
       <c r="B49" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="11">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J49" s="22" t="s">
+      <c r="J49" s="11" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2139,16 +2146,16 @@
       <c r="B50" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="11">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J50" s="22" t="s">
+      <c r="J50" s="11" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2159,16 +2166,16 @@
       <c r="B51" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="11">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J51" s="22" t="s">
+      <c r="J51" s="11" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2179,16 +2186,16 @@
       <c r="B52" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="11">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J52" s="22" t="s">
+      <c r="J52" s="11" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2199,16 +2206,16 @@
       <c r="B53" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="11">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J53" s="22" t="s">
+      <c r="J53" s="11" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2219,16 +2226,16 @@
       <c r="B54" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="11">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J54" s="22" t="s">
+      <c r="J54" s="11" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2239,16 +2246,16 @@
       <c r="B55" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="11">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J55" s="22" t="s">
+      <c r="J55" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2259,16 +2266,16 @@
       <c r="B56" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="11">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J56" s="22" t="s">
+      <c r="J56" s="11" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2279,16 +2286,16 @@
       <c r="B57" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="11">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J57" s="22" t="s">
+      <c r="J57" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2299,16 +2306,16 @@
       <c r="B58" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="11">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J58" s="22" t="s">
+      <c r="J58" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2319,16 +2326,16 @@
       <c r="B59" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="11">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J59" s="22" t="s">
+      <c r="J59" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2339,16 +2346,16 @@
       <c r="B60" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="11">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J60" s="22" t="s">
+      <c r="J60" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2359,16 +2366,16 @@
       <c r="B61" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="11">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J61" s="22" t="s">
+      <c r="J61" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2379,16 +2386,16 @@
       <c r="B62" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="11">
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J62" s="22" t="s">
+      <c r="J62" s="11" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2399,16 +2406,16 @@
       <c r="B63" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="11">
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J63" s="22" t="s">
+      <c r="J63" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2419,16 +2426,16 @@
       <c r="B64" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="11">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J64" s="22" t="s">
+      <c r="J64" s="11" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2439,16 +2446,16 @@
       <c r="B65" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="11">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J65" s="22" t="s">
+      <c r="J65" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2459,16 +2466,16 @@
       <c r="B66" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="11">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J66" s="22" t="s">
+      <c r="J66" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2479,16 +2486,16 @@
       <c r="B67" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="11">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J67" s="22" t="s">
+      <c r="J67" s="11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2499,16 +2506,16 @@
       <c r="B68" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J68" s="22" t="s">
+      <c r="J68" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2519,16 +2526,16 @@
       <c r="B69" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
       <c r="H69" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J69" s="22" t="s">
+      <c r="J69" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2548,7 +2555,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J70" s="22" t="s">
+      <c r="J70" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2559,16 +2566,16 @@
       <c r="B71" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J71" s="22" t="s">
+      <c r="J71" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2579,16 +2586,16 @@
       <c r="B72" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
       <c r="H72" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J72" s="22" t="s">
+      <c r="J72" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2599,16 +2606,16 @@
       <c r="B73" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
       <c r="H73" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J73" s="22" t="s">
+      <c r="J73" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2619,16 +2626,16 @@
       <c r="B74" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
       <c r="H74" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J74" s="22" t="s">
+      <c r="J74" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2639,16 +2646,16 @@
       <c r="B75" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
       <c r="H75" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J75" s="22" t="s">
+      <c r="J75" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2668,7 +2675,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J76" s="22" t="s">
+      <c r="J76" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2688,7 +2695,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J77" s="22" t="s">
+      <c r="J77" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2708,7 +2715,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J78" s="22" t="s">
+      <c r="J78" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2728,7 +2735,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J79" s="22" t="s">
+      <c r="J79" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2739,16 +2746,16 @@
       <c r="B80" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
       <c r="H80" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J80" s="22" t="s">
+      <c r="J80" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2759,16 +2766,16 @@
       <c r="B81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
       <c r="H81" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J81" s="22" t="s">
+      <c r="J81" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2788,7 +2795,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J82" s="22" t="s">
+      <c r="J82" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2799,16 +2806,16 @@
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
       <c r="H83" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J83" s="22" t="s">
+      <c r="J83" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2819,16 +2826,16 @@
       <c r="B84" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
       <c r="H84" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J84" s="22" t="s">
+      <c r="J84" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2839,16 +2846,16 @@
       <c r="B85" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="11">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="7">
         <f t="shared" ref="H85:H116" si="4">SUM(C85:G85)</f>
         <v>0</v>
       </c>
-      <c r="J85" s="22" t="s">
+      <c r="J85" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2859,16 +2866,16 @@
       <c r="B86" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="11">
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J86" s="22" t="s">
+      <c r="J86" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2879,16 +2886,16 @@
       <c r="B87" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="11">
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J87" s="22" t="s">
+      <c r="J87" s="11" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2899,16 +2906,16 @@
       <c r="B88" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="11">
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J88" s="22" t="s">
+      <c r="J88" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2919,16 +2926,16 @@
       <c r="B89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="11">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J89" s="22" t="s">
+      <c r="J89" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2939,16 +2946,16 @@
       <c r="B90" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="11">
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J90" s="22" t="s">
+      <c r="J90" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2959,16 +2966,16 @@
       <c r="B91" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="11">
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J91" s="22" t="s">
+      <c r="J91" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2979,16 +2986,16 @@
       <c r="B92" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="11">
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J92" s="22" t="s">
+      <c r="J92" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2999,16 +3006,16 @@
       <c r="B93" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="11">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J93" s="22" t="s">
+      <c r="J93" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3019,16 +3026,16 @@
       <c r="B94" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="11">
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J94" s="22" t="s">
+      <c r="J94" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3039,16 +3046,16 @@
       <c r="B95" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="11">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J95" s="22" t="s">
+      <c r="J95" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3059,16 +3066,16 @@
       <c r="B96" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="11">
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J96" s="22" t="s">
+      <c r="J96" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3079,16 +3086,16 @@
       <c r="B97" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="11">
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J97" s="22" t="s">
+      <c r="J97" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3099,16 +3106,16 @@
       <c r="B98" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="11">
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J98" s="22" t="s">
+      <c r="J98" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3119,16 +3126,16 @@
       <c r="B99" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="11">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J99" s="22" t="s">
+      <c r="J99" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3139,16 +3146,16 @@
       <c r="B100" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="11">
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J100" s="22" t="s">
+      <c r="J100" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3159,16 +3166,16 @@
       <c r="B101" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="11">
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J101" s="22" t="s">
+      <c r="J101" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3179,16 +3186,16 @@
       <c r="B102" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="11">
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J102" s="22" t="s">
+      <c r="J102" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3199,16 +3206,16 @@
       <c r="B103" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="11">
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J103" s="22" t="s">
+      <c r="J103" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3219,16 +3226,16 @@
       <c r="B104" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="11">
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J104" s="22" t="s">
+      <c r="J104" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3239,16 +3246,16 @@
       <c r="B105" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="11">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J105" s="22" t="s">
+      <c r="J105" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3259,16 +3266,16 @@
       <c r="B106" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="11">
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J106" s="22" t="s">
+      <c r="J106" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3279,16 +3286,16 @@
       <c r="B107" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="11">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J107" s="22" t="s">
+      <c r="J107" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3299,16 +3306,16 @@
       <c r="B108" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="11">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J108" s="22" t="s">
+      <c r="J108" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3319,16 +3326,16 @@
       <c r="B109" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="11">
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J109" s="22" t="s">
+      <c r="J109" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3339,16 +3346,16 @@
       <c r="B110" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="11">
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J110" s="22" t="s">
+      <c r="J110" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3359,16 +3366,16 @@
       <c r="B111" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="11">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J111" s="22" t="s">
+      <c r="J111" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3379,16 +3386,16 @@
       <c r="B112" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="11">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J112" s="22" t="s">
+      <c r="J112" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3399,16 +3406,16 @@
       <c r="B113" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="11">
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J113" s="22" t="s">
+      <c r="J113" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3419,16 +3426,16 @@
       <c r="B114" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="11">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J114" s="22" t="s">
+      <c r="J114" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3439,16 +3446,16 @@
       <c r="B115" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="11">
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J115" s="22" t="s">
+      <c r="J115" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3459,16 +3466,16 @@
       <c r="B116" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="11">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J116" s="22" t="s">
+      <c r="J116" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3479,16 +3486,16 @@
       <c r="B117" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="11">
-        <f t="shared" ref="H117:H148" si="5">SUM(C117:G117)</f>
-        <v>0</v>
-      </c>
-      <c r="J117" s="22" t="s">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="7">
+        <f t="shared" ref="H117:H139" si="5">SUM(C117:G117)</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3499,16 +3506,16 @@
       <c r="B118" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="11">
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J118" s="22" t="s">
+      <c r="J118" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3519,16 +3526,16 @@
       <c r="B119" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="11">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J119" s="22" t="s">
+      <c r="J119" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3539,16 +3546,16 @@
       <c r="B120" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="11">
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="J120" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3559,16 +3566,16 @@
       <c r="B121" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="11">
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J121" s="22" t="s">
+      <c r="J121" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3579,16 +3586,16 @@
       <c r="B122" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="11">
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J122" s="22" t="s">
+      <c r="J122" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3599,16 +3606,16 @@
       <c r="B123" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="11">
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J123" s="22" t="s">
+      <c r="J123" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3619,16 +3626,16 @@
       <c r="B124" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="11">
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J124" s="22" t="s">
+      <c r="J124" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3639,16 +3646,16 @@
       <c r="B125" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="11">
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J125" s="22" t="s">
+      <c r="J125" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3659,16 +3666,16 @@
       <c r="B126" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="11">
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J126" s="22" t="s">
+      <c r="J126" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3679,16 +3686,16 @@
       <c r="B127" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="11">
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J127" s="22" t="s">
+      <c r="J127" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3699,16 +3706,16 @@
       <c r="B128" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="11">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J128" s="22" t="s">
+      <c r="J128" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3719,16 +3726,16 @@
       <c r="B129" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="11">
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J129" s="22" t="s">
+      <c r="J129" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3739,16 +3746,16 @@
       <c r="B130" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="11">
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J130" s="22" t="s">
+      <c r="J130" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3759,16 +3766,16 @@
       <c r="B131" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="11">
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J131" s="22" t="s">
+      <c r="J131" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3779,16 +3786,16 @@
       <c r="B132" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="11">
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J132" s="22" t="s">
+      <c r="J132" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3799,16 +3806,16 @@
       <c r="B133" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="11">
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J133" s="22" t="s">
+      <c r="J133" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3819,16 +3826,16 @@
       <c r="B134" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="11">
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J134" s="22" t="s">
+      <c r="J134" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3839,16 +3846,16 @@
       <c r="B135" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="11">
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J135" s="22" t="s">
+      <c r="J135" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3859,16 +3866,16 @@
       <c r="B136" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="11">
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J136" s="22" t="s">
+      <c r="J136" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3879,16 +3886,16 @@
       <c r="B137" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="11">
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J137" s="22" t="s">
+      <c r="J137" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3899,16 +3906,16 @@
       <c r="B138" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="11">
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J138" s="22" t="s">
+      <c r="J138" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3919,16 +3926,16 @@
       <c r="B139" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="11">
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J139" s="22" t="s">
+      <c r="J139" s="11" t="s">
         <v>71</v>
       </c>
     </row>

--- a/level-3/hackerrank/phase-3-graph-string/hackerrank-phase-3-graph-greedy-string.xlsx
+++ b/level-3/hackerrank/phase-3-graph-string/hackerrank-phase-3-graph-greedy-string.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661EBFB9-86DA-41BA-BC02-D93478787582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A5ED6-14D6-43A7-B05B-DB1DF93BAC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="graph-string" sheetId="14" r:id="rId1"/>
+    <sheet name="hackerrank graph-string" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1151,27 +1151,27 @@
       <c r="A3" s="18"/>
       <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C84)</f>
+        <f>AVERAGE(C4:C184)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D184)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E184)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F184)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G184)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H184)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1196,7 +1196,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H35" si="1">SUM(C4:G4)</f>
+        <f t="shared" ref="H4:H35" si="0">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -1217,7 +1217,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="2"/>
@@ -1238,7 +1238,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
@@ -1259,7 +1259,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
@@ -1280,7 +1280,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
@@ -1301,7 +1301,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
@@ -1322,7 +1322,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
@@ -1343,7 +1343,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
@@ -1364,7 +1364,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
@@ -1385,7 +1385,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
@@ -1406,7 +1406,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
@@ -1427,7 +1427,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
@@ -1448,7 +1448,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
@@ -1469,7 +1469,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
@@ -1490,7 +1490,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
@@ -1511,7 +1511,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
@@ -1532,7 +1532,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -1553,7 +1553,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -1574,7 +1574,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -1595,7 +1595,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -1616,7 +1616,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -1637,7 +1637,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
@@ -1658,7 +1658,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
@@ -1679,7 +1679,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
@@ -1700,7 +1700,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
@@ -1721,7 +1721,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
@@ -1742,7 +1742,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
@@ -1763,7 +1763,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
@@ -1784,7 +1784,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
@@ -1805,7 +1805,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
@@ -1826,7 +1826,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
@@ -1847,7 +1847,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
@@ -1868,7 +1868,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" ref="H36:H84" si="2">SUM(C36:G36)</f>
+        <f t="shared" ref="H36:H84" si="1">SUM(C36:G36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
@@ -1889,7 +1889,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
@@ -1910,7 +1910,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
@@ -1931,7 +1931,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
@@ -1952,7 +1952,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J40" s="11" t="s">
@@ -1972,7 +1972,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J41" s="11" t="s">
@@ -1992,7 +1992,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J42" s="11" t="s">
@@ -2012,7 +2012,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J43" s="11" t="s">
@@ -2032,7 +2032,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J44" s="11" t="s">
@@ -2052,7 +2052,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J45" s="11" t="s">
@@ -2072,7 +2072,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <f t="shared" ref="H46:H67" si="3">SUM(C46:G46)</f>
+        <f t="shared" ref="H46:H67" si="2">SUM(C46:G46)</f>
         <v>0</v>
       </c>
       <c r="J46" s="11" t="s">
@@ -2092,7 +2092,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47" s="11" t="s">
@@ -2112,7 +2112,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J48" s="11" t="s">
@@ -2132,7 +2132,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J49" s="11" t="s">
@@ -2152,7 +2152,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J50" s="11" t="s">
@@ -2172,7 +2172,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J51" s="11" t="s">
@@ -2192,7 +2192,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J52" s="11" t="s">
@@ -2212,7 +2212,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J53" s="11" t="s">
@@ -2232,7 +2232,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J54" s="11" t="s">
@@ -2252,7 +2252,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J55" s="11" t="s">
@@ -2272,7 +2272,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J56" s="11" t="s">
@@ -2292,7 +2292,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J57" s="11" t="s">
@@ -2312,7 +2312,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J58" s="11" t="s">
@@ -2332,7 +2332,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J59" s="11" t="s">
@@ -2352,7 +2352,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J60" s="11" t="s">
@@ -2372,7 +2372,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61" s="11" t="s">
@@ -2392,7 +2392,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J62" s="11" t="s">
@@ -2412,7 +2412,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J63" s="11" t="s">
@@ -2432,7 +2432,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J64" s="11" t="s">
@@ -2452,7 +2452,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J65" s="11" t="s">
@@ -2472,7 +2472,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J66" s="11" t="s">
@@ -2492,7 +2492,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J67" s="11" t="s">
@@ -2512,7 +2512,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J68" s="11" t="s">
@@ -2532,7 +2532,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J69" s="11" t="s">
@@ -2552,7 +2552,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J70" s="11" t="s">
@@ -2572,7 +2572,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J71" s="11" t="s">
@@ -2592,7 +2592,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J72" s="11" t="s">
@@ -2612,7 +2612,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J73" s="11" t="s">
@@ -2632,7 +2632,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J74" s="11" t="s">
@@ -2652,7 +2652,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J75" s="11" t="s">
@@ -2672,7 +2672,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J76" s="11" t="s">
@@ -2692,7 +2692,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J77" s="11" t="s">
@@ -2712,7 +2712,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J78" s="11" t="s">
@@ -2732,7 +2732,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J79" s="11" t="s">
@@ -2752,7 +2752,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J80" s="11" t="s">
@@ -2772,7 +2772,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J81" s="11" t="s">
@@ -2792,7 +2792,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J82" s="11" t="s">
@@ -2812,7 +2812,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J83" s="11" t="s">
@@ -2832,7 +2832,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J84" s="11" t="s">
@@ -2852,7 +2852,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <f t="shared" ref="H85:H116" si="4">SUM(C85:G85)</f>
+        <f t="shared" ref="H85:H116" si="3">SUM(C85:G85)</f>
         <v>0</v>
       </c>
       <c r="J85" s="11" t="s">
@@ -2872,7 +2872,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J86" s="11" t="s">
@@ -2892,7 +2892,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J87" s="11" t="s">
@@ -2912,7 +2912,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J88" s="11" t="s">
@@ -2932,7 +2932,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J89" s="11" t="s">
@@ -2952,7 +2952,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J90" s="11" t="s">
@@ -2972,7 +2972,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J91" s="11" t="s">
@@ -2992,7 +2992,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J92" s="11" t="s">
@@ -3012,7 +3012,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J93" s="11" t="s">
@@ -3032,7 +3032,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J94" s="11" t="s">
@@ -3052,7 +3052,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J95" s="11" t="s">
@@ -3072,7 +3072,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J96" s="11" t="s">
@@ -3092,7 +3092,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J97" s="11" t="s">
@@ -3112,7 +3112,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J98" s="11" t="s">
@@ -3132,7 +3132,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J99" s="11" t="s">
@@ -3152,7 +3152,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J100" s="11" t="s">
@@ -3172,7 +3172,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J101" s="11" t="s">
@@ -3192,7 +3192,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J102" s="11" t="s">
@@ -3212,7 +3212,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J103" s="11" t="s">
@@ -3232,7 +3232,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J104" s="11" t="s">
@@ -3252,7 +3252,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J105" s="11" t="s">
@@ -3272,7 +3272,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J106" s="11" t="s">
@@ -3292,7 +3292,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J107" s="11" t="s">
@@ -3312,7 +3312,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J108" s="11" t="s">
@@ -3332,7 +3332,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J109" s="11" t="s">
@@ -3352,7 +3352,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J110" s="11" t="s">
@@ -3372,7 +3372,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J111" s="11" t="s">
@@ -3392,7 +3392,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J112" s="11" t="s">
@@ -3412,7 +3412,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J113" s="11" t="s">
@@ -3432,7 +3432,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J114" s="11" t="s">
@@ -3452,7 +3452,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J115" s="11" t="s">
@@ -3472,7 +3472,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J116" s="11" t="s">
@@ -3492,7 +3492,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="7">
-        <f t="shared" ref="H117:H139" si="5">SUM(C117:G117)</f>
+        <f t="shared" ref="H117:H139" si="4">SUM(C117:G117)</f>
         <v>0</v>
       </c>
       <c r="J117" s="11" t="s">
@@ -3512,7 +3512,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J118" s="11" t="s">
@@ -3532,7 +3532,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J119" s="11" t="s">
@@ -3552,7 +3552,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J120" s="11" t="s">
@@ -3572,7 +3572,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J121" s="11" t="s">
@@ -3592,7 +3592,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J122" s="11" t="s">
@@ -3612,7 +3612,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J123" s="11" t="s">
@@ -3632,7 +3632,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J124" s="11" t="s">
@@ -3652,7 +3652,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J125" s="11" t="s">
@@ -3672,7 +3672,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J126" s="11" t="s">
@@ -3692,7 +3692,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J127" s="11" t="s">
@@ -3712,7 +3712,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J128" s="11" t="s">
@@ -3732,7 +3732,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J129" s="11" t="s">
@@ -3752,7 +3752,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J130" s="11" t="s">
@@ -3772,7 +3772,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J131" s="11" t="s">
@@ -3792,7 +3792,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J132" s="11" t="s">
@@ -3812,7 +3812,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J133" s="11" t="s">
@@ -3832,7 +3832,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J134" s="11" t="s">
@@ -3852,7 +3852,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c r="H135" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J135" s="11" t="s">
@@ -3872,7 +3872,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J136" s="11" t="s">
@@ -3892,7 +3892,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J137" s="11" t="s">
@@ -3912,7 +3912,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c r="H138" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J138" s="11" t="s">
@@ -3932,7 +3932,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J139" s="11" t="s">
@@ -3952,31 +3952,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1 J7:J9">
-    <cfRule type="cellIs" dxfId="4" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I9">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="J5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
